--- a/biology/Médecine/Noyau_spinal_du_trijumeau/Noyau_spinal_du_trijumeau.xlsx
+++ b/biology/Médecine/Noyau_spinal_du_trijumeau/Noyau_spinal_du_trijumeau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le noyau spinal du trijumeau (ou noyau de la racine descendante) est un des trois noyaux sensitifs du nerf trijumeau. Il est situé dans la moelle épinière qui reçoit des informations sur le toucher profond, la douleur et la température de la face ipsilatérale.
 En plus des informations du nerf trijumeau (CN V), il reçoit les informations des nerfs facial (CN VII), glossopharyngien (CN IX) et vague (CN X).
@@ -512,7 +524,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le noyau spinal du trijumeau est composé de trois sous-noyaux :
 le noyau oral,
@@ -522,7 +536,7 @@
 Le noyau caudal est associé à la transmission nociceptive et des sensations thermiques de la face et des sinus.
 Le noyau interpolaire est également associé à la transmission du sens tactile, ainsi qu'à la douleur dentaire.
 Ce noyau envoie ses efférences vers le noyau ventropostéromédian du thalamus  via le lemniscus médial.
-Chez la souris, ce noyau thalamique a des niveaux significatifs d'expression des récepteurs de la leptine, de la neuropeptine Y et du Glucagon-like peptide-1[1].
+Chez la souris, ce noyau thalamique a des niveaux significatifs d'expression des récepteurs de la leptine, de la neuropeptine Y et du Glucagon-like peptide-1.
 </t>
         </is>
       </c>
